--- a/doc/ProcessDocs/ProjectPlanning/Estimates/R2012aM3/EventLocator_R2012aM3.xlsx
+++ b/doc/ProcessDocs/ProjectPlanning/Estimates/R2012aM3/EventLocator_R2012aM3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="5850" windowWidth="19080" windowHeight="5910" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="5850" windowWidth="19080" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="Work Items" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
   <si>
     <t>Key</t>
   </si>
@@ -134,19 +134,7 @@
     <t>GMT-3 Write eclipse script tests</t>
   </si>
   <si>
-    <t>GMT-333</t>
-  </si>
-  <si>
-    <t>Eclipse Locator Fails to Locate Eclipses (may to be related to changing prop origin)</t>
-  </si>
-  <si>
     <t>Darrel Conway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 Feb. 2012 build. Windows 7 Enterprise. 
-The attached script performs a transfer from Earth to Moon. I designed the trajectory so that the final lunar orbit is nearly in the ecliptic plane which guarantees that lunar shadowing occurs. However, I don't see any eclipses in the resulting report. 
-I found this by going through sample missions, adding event location to them, and verifying if events were located. 
-</t>
   </si>
   <si>
     <t>GMT-251</t>
@@ -343,9 +331,6 @@
   </si>
   <si>
     <t>The attached script and SPK file generate an exception without an EclipseLocator (due to GMT-390), but with the EclipseLocator, GMAT crashes. Tested with build 2012-02-28.</t>
-  </si>
-  <si>
-    <t>Presumed fixed by M3</t>
   </si>
   <si>
     <t>Issue here is formation handling</t>
@@ -1241,9 +1226,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Joel J. K. Parker" refreshedDate="40973.696986805553" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Joel J. K. Parker" refreshedDate="40974.359814699077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H42" sheet="Work Items"/>
+    <worksheetSource ref="A1:H41" sheet="Work Items"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Key" numFmtId="0">
@@ -1638,7 +1623,7 @@
     <n v="2"/>
     <n v="2.4"/>
     <m/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="(new)"/>
@@ -1704,7 +1689,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2076,11 +2061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2112,10 +2097,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2140,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
@@ -2161,14 +2146,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F34" si="0">E3*1.2</f>
+        <f t="shared" ref="F3:F33" si="0">E3*1.2</f>
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85.5">
@@ -2190,24 +2175,22 @@
         <v>9.2999999999999989</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="108.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -2216,371 +2199,369 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>102</v>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.5</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="85.5">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.5</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="85.5">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="114">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="42.75">
+      <c r="A11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="85.5">
+      <c r="A12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="114">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="G12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" ht="15">
+      <c r="A13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" ht="15">
+      <c r="A14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="42.75">
-      <c r="A12" s="14" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" ht="28.5">
+      <c r="A15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="16">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="67.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="100.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5">
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" ht="85.5">
-      <c r="A13" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" ht="15">
-      <c r="A14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" ht="15">
-      <c r="A15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" ht="28.5">
-      <c r="A16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="16">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.5">
-      <c r="A17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="67.5" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="100.5" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.5">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
@@ -2589,76 +2570,76 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="8" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5">
       <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
+      <c r="D23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.5">
@@ -2669,42 +2650,44 @@
         <v>77</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2</v>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.5">
       <c r="A25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>78</v>
+      <c r="D25" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5">
@@ -2714,163 +2697,163 @@
       <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6</v>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.5">
       <c r="A27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="71.25">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H28" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="71.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="66.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="10">
+        <v>3</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="66.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E31" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="90.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="73.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" s="10">
         <v>2</v>
@@ -2879,175 +2862,173 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="H32" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="73.5" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="57">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>110</v>
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="57">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.5">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E34" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>E34*1.2</f>
+        <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="85.5">
       <c r="A35" s="4" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D35" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E35" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
         <f>E35*1.2</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="85.5">
+      <c r="A36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="85.5">
-      <c r="A36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E36" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="3">
-        <f>E36*1.2</f>
-        <v>2.4</v>
+        <f t="shared" ref="F36:F41" si="1">E36*1.2</f>
+        <v>1.2</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="85.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.5">
       <c r="A37" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="8">
+        <v>34</v>
+      </c>
+      <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:F42" si="1">E37*1.2</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="H37" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.5">
       <c r="A38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="G38" s="9" t="s">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="28.5">
-      <c r="A39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E39" s="10">
         <v>3</v>
@@ -3058,19 +3039,19 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40" s="10">
         <v>3</v>
@@ -3081,94 +3062,70 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.5">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="G41" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="H41" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.5">
-      <c r="A42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="http://li64-187.members.linode.com:8080/browse/GMT-372"/>
-    <hyperlink ref="A30" r:id="rId2" display="http://li64-187.members.linode.com:8080/browse/GMT-371"/>
-    <hyperlink ref="A31" r:id="rId3" display="http://li64-187.members.linode.com:8080/browse/GMT-376"/>
-    <hyperlink ref="A32" r:id="rId4" display="http://li64-187.members.linode.com:8080/browse/GMT-377"/>
-    <hyperlink ref="A33" r:id="rId5" display="http://li64-187.members.linode.com:8080/browse/GMT-378"/>
-    <hyperlink ref="A34" r:id="rId6" display="http://li64-187.members.linode.com:8080/browse/GMT-344"/>
-    <hyperlink ref="A35" r:id="rId7" display="http://li64-187.members.linode.com:8080/browse/GMT-13"/>
+    <hyperlink ref="A28" r:id="rId1" display="http://li64-187.members.linode.com:8080/browse/GMT-372"/>
+    <hyperlink ref="A29" r:id="rId2" display="http://li64-187.members.linode.com:8080/browse/GMT-371"/>
+    <hyperlink ref="A30" r:id="rId3" display="http://li64-187.members.linode.com:8080/browse/GMT-376"/>
+    <hyperlink ref="A31" r:id="rId4" display="http://li64-187.members.linode.com:8080/browse/GMT-377"/>
+    <hyperlink ref="A32" r:id="rId5" display="http://li64-187.members.linode.com:8080/browse/GMT-378"/>
+    <hyperlink ref="A33" r:id="rId6" display="http://li64-187.members.linode.com:8080/browse/GMT-344"/>
+    <hyperlink ref="A34" r:id="rId7" display="http://li64-187.members.linode.com:8080/browse/GMT-13"/>
     <hyperlink ref="A2" r:id="rId8" display="http://li64-187.members.linode.com:8080/browse/GMT-17"/>
     <hyperlink ref="A3" r:id="rId9" display="http://li64-187.members.linode.com:8080/browse/GMT-16"/>
     <hyperlink ref="A4" r:id="rId10" display="http://li64-187.members.linode.com:8080/browse/GMT-15"/>
-    <hyperlink ref="A5" r:id="rId11" display="http://li64-187.members.linode.com:8080/browse/GMT-333"/>
-    <hyperlink ref="A6" r:id="rId12" display="http://li64-187.members.linode.com:8080/browse/GMT-251"/>
-    <hyperlink ref="A7" r:id="rId13" display="http://li64-187.members.linode.com:8080/browse/GMT-21"/>
-    <hyperlink ref="A8" r:id="rId14" display="http://li64-187.members.linode.com:8080/browse/GMT-19"/>
-    <hyperlink ref="A9" r:id="rId15" display="http://li64-187.members.linode.com:8080/browse/GMT-252"/>
-    <hyperlink ref="A10" r:id="rId16" display="http://li64-187.members.linode.com:8080/browse/GMT-4"/>
-    <hyperlink ref="A11" r:id="rId17" display="http://li64-187.members.linode.com:8080/browse/GMT-335"/>
-    <hyperlink ref="A17" r:id="rId18" display="http://li64-187.members.linode.com:8080/browse/GMT-197"/>
-    <hyperlink ref="A18" r:id="rId19" display="http://li64-187.members.linode.com:8080/browse/GMT-173"/>
-    <hyperlink ref="A19" r:id="rId20" display="http://li64-187.members.linode.com:8080/browse/GMT-334"/>
-    <hyperlink ref="A20" r:id="rId21" display="http://li64-187.members.linode.com:8080/browse/GMT-305"/>
-    <hyperlink ref="A21" r:id="rId22" display="http://li64-187.members.linode.com:8080/browse/GMT-306"/>
-    <hyperlink ref="A22" r:id="rId23" display="http://li64-187.members.linode.com:8080/browse/GMT-257"/>
-    <hyperlink ref="A23" r:id="rId24" display="http://li64-187.members.linode.com:8080/browse/GMT-256"/>
-    <hyperlink ref="A24" r:id="rId25" display="http://li64-187.members.linode.com:8080/browse/GMT-261"/>
-    <hyperlink ref="A25" r:id="rId26" display="http://li64-187.members.linode.com:8080/browse/GMT-262"/>
-    <hyperlink ref="A26" r:id="rId27" display="http://li64-187.members.linode.com:8080/browse/GMT-259"/>
-    <hyperlink ref="A27" r:id="rId28" display="http://li64-187.members.linode.com:8080/browse/GMT-260"/>
-    <hyperlink ref="A28" r:id="rId29" display="http://li64-187.members.linode.com:8080/browse/GMT-258"/>
-    <hyperlink ref="A36" r:id="rId30"/>
-    <hyperlink ref="A12" r:id="rId31"/>
+    <hyperlink ref="A5" r:id="rId11" display="http://li64-187.members.linode.com:8080/browse/GMT-251"/>
+    <hyperlink ref="A6" r:id="rId12" display="http://li64-187.members.linode.com:8080/browse/GMT-21"/>
+    <hyperlink ref="A7" r:id="rId13" display="http://li64-187.members.linode.com:8080/browse/GMT-19"/>
+    <hyperlink ref="A8" r:id="rId14" display="http://li64-187.members.linode.com:8080/browse/GMT-252"/>
+    <hyperlink ref="A9" r:id="rId15" display="http://li64-187.members.linode.com:8080/browse/GMT-4"/>
+    <hyperlink ref="A10" r:id="rId16" display="http://li64-187.members.linode.com:8080/browse/GMT-335"/>
+    <hyperlink ref="A16" r:id="rId17" display="http://li64-187.members.linode.com:8080/browse/GMT-197"/>
+    <hyperlink ref="A17" r:id="rId18" display="http://li64-187.members.linode.com:8080/browse/GMT-173"/>
+    <hyperlink ref="A18" r:id="rId19" display="http://li64-187.members.linode.com:8080/browse/GMT-334"/>
+    <hyperlink ref="A19" r:id="rId20" display="http://li64-187.members.linode.com:8080/browse/GMT-305"/>
+    <hyperlink ref="A20" r:id="rId21" display="http://li64-187.members.linode.com:8080/browse/GMT-306"/>
+    <hyperlink ref="A21" r:id="rId22" display="http://li64-187.members.linode.com:8080/browse/GMT-257"/>
+    <hyperlink ref="A22" r:id="rId23" display="http://li64-187.members.linode.com:8080/browse/GMT-256"/>
+    <hyperlink ref="A23" r:id="rId24" display="http://li64-187.members.linode.com:8080/browse/GMT-261"/>
+    <hyperlink ref="A24" r:id="rId25" display="http://li64-187.members.linode.com:8080/browse/GMT-262"/>
+    <hyperlink ref="A25" r:id="rId26" display="http://li64-187.members.linode.com:8080/browse/GMT-259"/>
+    <hyperlink ref="A26" r:id="rId27" display="http://li64-187.members.linode.com:8080/browse/GMT-260"/>
+    <hyperlink ref="A27" r:id="rId28" display="http://li64-187.members.linode.com:8080/browse/GMT-258"/>
+    <hyperlink ref="A35" r:id="rId29"/>
+    <hyperlink ref="A11" r:id="rId30"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup orientation="landscape" r:id="rId32"/>
+  <pageSetup orientation="landscape" r:id="rId31"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3179,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3191,47 +3148,47 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="28">
-        <v>14.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="28">
-        <v>14.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="28">
-        <v>86.699999999999974</v>
+        <v>89.09999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="28">
-        <v>41.999999999999993</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="28">
         <v>4.8</v>
@@ -3247,7 +3204,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="28">
         <v>0.6</v>
@@ -3263,7 +3220,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="28">
         <v>7.1999999999999993</v>
@@ -3271,7 +3228,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="28">
         <v>0</v>
@@ -3295,7 +3252,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B16" s="28">
         <v>101.09999999999998</v>
